--- a/data-files/beudo_data_files/beudo_building_summary_statistics.xlsx
+++ b/data-files/beudo_data_files/beudo_building_summary_statistics.xlsx
@@ -477,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +521,16 @@
           <t>percentage_of_total_ghg</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>percent_of_city_wide_ghg</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>percent_of_building_sector_ghg</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -546,6 +556,12 @@
       <c r="G2" t="n">
         <v>0.01776756830199805</v>
       </c>
+      <c r="H2" t="n">
+        <v>9.14349771341787e-05</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0001106246783792971</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -571,6 +587,12 @@
       <c r="G3" t="n">
         <v>0</v>
       </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -596,6 +618,12 @@
       <c r="G4" t="n">
         <v>29.52267125212949</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.151928768472767</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1838144622073733</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -621,6 +649,12 @@
       <c r="G5" t="n">
         <v>0.2712167043746174</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.001395728033312904</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.001688653178789859</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -646,6 +680,12 @@
       <c r="G6" t="n">
         <v>0.2877603457579793</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.001480864471000534</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.001791657426537764</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -671,6 +711,12 @@
       <c r="G7" t="n">
         <v>0.9372117239546977</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.004823053503615645</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.005835280538875756</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -696,6 +742,12 @@
       <c r="G8" t="n">
         <v>0.03462750540590642</v>
       </c>
+      <c r="H8" t="n">
+        <v>0.0001781991272630511</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0002155982508971131</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -721,6 +773,12 @@
       <c r="G9" t="n">
         <v>0.05239507370790447</v>
       </c>
+      <c r="H9" t="n">
+        <v>0.0002696341043972298</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0003262229292764101</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -746,6 +804,12 @@
       <c r="G10" t="n">
         <v>0.3198299814238148</v>
       </c>
+      <c r="H10" t="n">
+        <v>0.001645900358521358</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.00199132983364343</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -771,6 +835,12 @@
       <c r="G11" t="n">
         <v>0.1118586691706286</v>
       </c>
+      <c r="H11" t="n">
+        <v>0.0005756440433509362</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0006964559860195066</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -796,6 +866,12 @@
       <c r="G12" t="n">
         <v>2.431942787329908</v>
       </c>
+      <c r="H12" t="n">
+        <v>0.01251519788029378</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.01514179566457433</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -821,6 +897,12 @@
       <c r="G13" t="n">
         <v>1.681813106084485</v>
       </c>
+      <c r="H13" t="n">
+        <v>0.008654900900620372</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.01047132791569235</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -846,6 +928,12 @@
       <c r="G14" t="n">
         <v>1.250798302894683</v>
       </c>
+      <c r="H14" t="n">
+        <v>0.006436824233948986</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.007787737614017482</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -871,6 +959,12 @@
       <c r="G15" t="n">
         <v>26.83825571986431</v>
       </c>
+      <c r="H15" t="n">
+        <v>0.1381143022138305</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1671007172623303</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -896,6 +990,12 @@
       <c r="G16" t="n">
         <v>0.1129175722350666</v>
       </c>
+      <c r="H16" t="n">
+        <v>0.0005810933415237936</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0007030489428579013</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -921,6 +1021,12 @@
       <c r="G17" t="n">
         <v>0</v>
       </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -946,6 +1052,12 @@
       <c r="G18" t="n">
         <v>0.7098501088332317</v>
       </c>
+      <c r="H18" t="n">
+        <v>0.003653011338786405</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.004419678520574734</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -971,6 +1083,12 @@
       <c r="G19" t="n">
         <v>0.1425393540636299</v>
       </c>
+      <c r="H19" t="n">
+        <v>0.0007335321501515188</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.0008874804887007851</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -996,6 +1114,12 @@
       <c r="G20" t="n">
         <v>7.762130766002226</v>
       </c>
+      <c r="H20" t="n">
+        <v>0.03994526639991054</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.04832868544146696</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1021,6 +1145,12 @@
       <c r="G21" t="n">
         <v>0.01316065237230042</v>
       </c>
+      <c r="H21" t="n">
+        <v>6.772699157694197e-05</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8.194103499147625e-05</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1046,6 +1176,12 @@
       <c r="G22" t="n">
         <v>9.642522576638454</v>
       </c>
+      <c r="H22" t="n">
+        <v>0.04962208763320704</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.06003640682139851</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1071,6 +1207,12 @@
       <c r="G23" t="n">
         <v>0.6627495504475173</v>
       </c>
+      <c r="H23" t="n">
+        <v>0.003410623725253463</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.004126420375490298</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1096,6 +1238,12 @@
       <c r="G24" t="n">
         <v>0.01556725024602306</v>
       </c>
+      <c r="H24" t="n">
+        <v>8.011176015161787e-05</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9.692502780600953e-05</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1121,6 +1269,12 @@
       <c r="G25" t="n">
         <v>11.62793831848394</v>
       </c>
+      <c r="H25" t="n">
+        <v>0.05983938016710238</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0723980296477563</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1146,6 +1300,12 @@
       <c r="G26" t="n">
         <v>0.07599348485823625</v>
       </c>
+      <c r="H26" t="n">
+        <v>0.0003910756065351946</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0004731516816749192</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1171,6 +1331,12 @@
       <c r="G27" t="n">
         <v>0</v>
       </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1196,6 +1362,12 @@
       <c r="G28" t="n">
         <v>0</v>
       </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1221,6 +1393,12 @@
       <c r="G29" t="n">
         <v>0.03906939748140594</v>
       </c>
+      <c r="H29" t="n">
+        <v>0.0002010578715465958</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0002432544204919373</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1246,6 +1424,12 @@
       <c r="G30" t="n">
         <v>0.08762766657920404</v>
       </c>
+      <c r="H30" t="n">
+        <v>0.0004509471163304851</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.0005455885840811774</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1271,6 +1455,12 @@
       <c r="G31" t="n">
         <v>0</v>
       </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1296,6 +1486,12 @@
       <c r="G32" t="n">
         <v>0.009667647458440117</v>
       </c>
+      <c r="H32" t="n">
+        <v>4.975138461712665e-05</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6.019283970638224e-05</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1321,6 +1517,12 @@
       <c r="G33" t="n">
         <v>1.118545435742737</v>
       </c>
+      <c r="H33" t="n">
+        <v>0.00575622812319094</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.006964302991746817</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1346,6 +1548,12 @@
       <c r="G34" t="n">
         <v>0.4251977123293172</v>
       </c>
+      <c r="H34" t="n">
+        <v>0.00218814091177374</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.002647371850471739</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1371,6 +1579,12 @@
       <c r="G35" t="n">
         <v>0.1379736940974818</v>
       </c>
+      <c r="H35" t="n">
+        <v>0.000710036474912705</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.0008590537137612134</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1396,6 +1610,12 @@
       <c r="G36" t="n">
         <v>0.140063996250658</v>
       </c>
+      <c r="H36" t="n">
+        <v>0.0007207935310461379</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.0008720683818058366</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1421,6 +1641,12 @@
       <c r="G37" t="n">
         <v>0.004029332440004202</v>
       </c>
+      <c r="H37" t="n">
+        <v>2.073564109931452e-05</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.508748511233285e-05</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1446,6 +1672,12 @@
       <c r="G38" t="n">
         <v>2.247391110385006</v>
       </c>
+      <c r="H38" t="n">
+        <v>0.01156546305588149</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.01399273747273984</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1471,6 +1703,12 @@
       <c r="G39" t="n">
         <v>0.02175564477845272</v>
       </c>
+      <c r="H39" t="n">
+        <v>0.0001119583079150702</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.0001354552950433808</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1496,6 +1734,12 @@
       <c r="G40" t="n">
         <v>0.002777901545668426</v>
       </c>
+      <c r="H40" t="n">
+        <v>1.429556144048305e-05</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.729580884877555e-05</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1521,6 +1765,12 @@
       <c r="G41" t="n">
         <v>0.1864081953046313</v>
       </c>
+      <c r="H41" t="n">
+        <v>0.0009592887887413254</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.001160617272005706</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1546,6 +1796,12 @@
       <c r="G42" t="n">
         <v>0.007769873135161688</v>
       </c>
+      <c r="H42" t="n">
+        <v>3.998510996966793e-05</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4.837689108692171e-05</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1571,6 +1827,12 @@
       <c r="G43" t="n">
         <v>0.3425482653517566</v>
       </c>
+      <c r="H43" t="n">
+        <v>0.001762812573866298</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.002132778725812625</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1596,6 +1858,12 @@
       <c r="G44" t="n">
         <v>0.008347456624855122</v>
       </c>
+      <c r="H44" t="n">
+        <v>4.295745442759015e-05</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5.197304936240969e-05</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1621,6 +1889,12 @@
       <c r="G45" t="n">
         <v>0.2131420596847274</v>
       </c>
+      <c r="H45" t="n">
+        <v>0.00109686587507944</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.00132706802647115</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1646,6 +1920,12 @@
       <c r="G46" t="n">
         <v>0.1611045376609189</v>
       </c>
+      <c r="H46" t="n">
+        <v>0.0008290717934418758</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.001003071290412899</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1671,6 +1951,12 @@
       <c r="G47" t="n">
         <v>0.1165205930517256</v>
       </c>
+      <c r="H47" t="n">
+        <v>0.0005996351093327369</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.0007254821206716596</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1696,6 +1982,12 @@
       <c r="G48" t="n">
         <v>0.01087782238922636</v>
       </c>
+      <c r="H48" t="n">
+        <v>5.59791539575351e-05</v>
+      </c>
+      <c r="I48" t="n">
+        <v>6.77276475216904e-05</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1720,6 +2012,12 @@
       </c>
       <c r="G49" t="n">
         <v>0.1956632831275761</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.001006917070174222</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.001218241427229597</v>
       </c>
     </row>
   </sheetData>
@@ -6103,13 +6401,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B78E45-38F6-4B99-8E44-DA8F607E57F9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA412023-2D6C-4B11-A0B2-49B8434A8BEF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A3F54A9-8FB3-4C53-87D0-73D7BBB250DF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB616A14-BC72-44B9-BEDC-A7DA12069418}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99E680F2-5FBC-4607-B89B-C38A672B3EDE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D78B4E10-95B0-46E6-ABA2-647161D03924}"/>
 </file>